--- a/TE_class_models_consensus.xlsx
+++ b/TE_class_models_consensus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhlub\Documents\khare_lab\coronavirus (1)\new_variants\omicron\upload\omicron_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50F72F6-8EAB-4372-8DFD-B2E0977E8849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70A6EA4-7104-4612-94E2-BE96A785CAD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="antibody_class_models_identific" sheetId="1" r:id="rId1"/>
@@ -48,9 +48,6 @@
     <t>Models</t>
   </si>
   <si>
-    <t>Model Count</t>
-  </si>
-  <si>
     <t>++++</t>
   </si>
   <si>
@@ -1780,6 +1777,9 @@
   </si>
   <si>
     <t>2-4</t>
+  </si>
+  <si>
+    <t>Complex Count</t>
   </si>
 </sst>
 </file>
@@ -3761,10 +3761,10 @@
   <dimension ref="A1:P287"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B195" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q202" sqref="Q202"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3800,54 +3800,54 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="C2" s="4">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="E2" s="4">
         <v>7</v>
@@ -3888,16 +3888,16 @@
     </row>
     <row r="3" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="7">
-        <v>1</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="E3" s="7">
         <v>6</v>
@@ -3938,16 +3938,16 @@
     </row>
     <row r="4" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>21</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="9">
-        <v>1</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>22</v>
       </c>
       <c r="E4" s="9">
         <v>5</v>
@@ -3988,16 +3988,16 @@
     </row>
     <row r="5" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="11">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>23</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="11">
-        <v>1</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>24</v>
       </c>
       <c r="E5" s="11">
         <v>5</v>
@@ -4038,16 +4038,16 @@
     </row>
     <row r="6" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="13">
+        <v>1</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>25</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="13">
-        <v>1</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>26</v>
       </c>
       <c r="E6" s="13">
         <v>5</v>
@@ -4088,16 +4088,16 @@
     </row>
     <row r="7" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="15">
+        <v>1</v>
+      </c>
+      <c r="D7" s="16" t="s">
         <v>27</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="15">
-        <v>1</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>28</v>
       </c>
       <c r="E7" s="15">
         <v>5</v>
@@ -4138,16 +4138,16 @@
     </row>
     <row r="8" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="17">
+        <v>1</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>29</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="17">
-        <v>1</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>30</v>
       </c>
       <c r="E8" s="17">
         <v>4</v>
@@ -4188,16 +4188,16 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="19">
+        <v>1</v>
+      </c>
+      <c r="D9" s="20" t="s">
         <v>31</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="19">
-        <v>1</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>32</v>
       </c>
       <c r="E9" s="19">
         <v>4</v>
@@ -4238,16 +4238,16 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="21">
+        <v>1</v>
+      </c>
+      <c r="D10" s="22" t="s">
         <v>33</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="21">
-        <v>1</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>34</v>
       </c>
       <c r="E10" s="21">
         <v>4</v>
@@ -4288,16 +4288,16 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="23">
+        <v>1</v>
+      </c>
+      <c r="D11" s="24" t="s">
         <v>35</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="23">
-        <v>1</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>36</v>
       </c>
       <c r="E11" s="23">
         <v>3</v>
@@ -4338,16 +4338,16 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="25">
+        <v>1</v>
+      </c>
+      <c r="D12" s="26" t="s">
         <v>37</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="25">
-        <v>1</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>38</v>
       </c>
       <c r="E12" s="25">
         <v>3</v>
@@ -4388,16 +4388,16 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="27">
+        <v>1</v>
+      </c>
+      <c r="D13" s="28" t="s">
         <v>39</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="27">
-        <v>1</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>40</v>
       </c>
       <c r="E13" s="27">
         <v>3</v>
@@ -4438,16 +4438,16 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="29">
+        <v>1</v>
+      </c>
+      <c r="D14" s="30" t="s">
         <v>41</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="29">
-        <v>1</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>42</v>
       </c>
       <c r="E14" s="29">
         <v>3</v>
@@ -4488,16 +4488,16 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="31">
+        <v>1</v>
+      </c>
+      <c r="D15" s="32" t="s">
         <v>43</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="31">
-        <v>1</v>
-      </c>
-      <c r="D15" s="32" t="s">
-        <v>44</v>
       </c>
       <c r="E15" s="31">
         <v>2</v>
@@ -4538,16 +4538,16 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="33">
+        <v>1</v>
+      </c>
+      <c r="D16" s="34" t="s">
         <v>45</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="33">
-        <v>1</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>46</v>
       </c>
       <c r="E16" s="33">
         <v>2</v>
@@ -4588,16 +4588,16 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="35">
+        <v>1</v>
+      </c>
+      <c r="D17" s="36" t="s">
         <v>47</v>
-      </c>
-      <c r="B17" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="35">
-        <v>1</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>48</v>
       </c>
       <c r="E17" s="35">
         <v>2</v>
@@ -4638,16 +4638,16 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="37">
+        <v>1</v>
+      </c>
+      <c r="D18" s="38" t="s">
         <v>49</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="37">
-        <v>1</v>
-      </c>
-      <c r="D18" s="38" t="s">
-        <v>50</v>
       </c>
       <c r="E18" s="37">
         <v>2</v>
@@ -4688,16 +4688,16 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="39">
+        <v>1</v>
+      </c>
+      <c r="D19" s="40" t="s">
         <v>51</v>
-      </c>
-      <c r="B19" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="39">
-        <v>1</v>
-      </c>
-      <c r="D19" s="40" t="s">
-        <v>52</v>
       </c>
       <c r="E19" s="39">
         <v>2</v>
@@ -4738,16 +4738,16 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="41">
+        <v>1</v>
+      </c>
+      <c r="D20" s="42" t="s">
         <v>53</v>
-      </c>
-      <c r="B20" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="41">
-        <v>1</v>
-      </c>
-      <c r="D20" s="42" t="s">
-        <v>54</v>
       </c>
       <c r="E20" s="41">
         <v>2</v>
@@ -4788,16 +4788,16 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="39">
+        <v>1</v>
+      </c>
+      <c r="D21" s="40" t="s">
         <v>55</v>
-      </c>
-      <c r="B21" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="39">
-        <v>1</v>
-      </c>
-      <c r="D21" s="40" t="s">
-        <v>56</v>
       </c>
       <c r="E21" s="39">
         <v>2</v>
@@ -4838,16 +4838,16 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="43">
+        <v>1</v>
+      </c>
+      <c r="D22" s="44" t="s">
         <v>57</v>
-      </c>
-      <c r="B22" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="43">
-        <v>1</v>
-      </c>
-      <c r="D22" s="44" t="s">
-        <v>58</v>
       </c>
       <c r="E22" s="43">
         <v>2</v>
@@ -4888,16 +4888,16 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="45">
+        <v>1</v>
+      </c>
+      <c r="D23" s="46" t="s">
         <v>59</v>
-      </c>
-      <c r="B23" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="45">
-        <v>1</v>
-      </c>
-      <c r="D23" s="46" t="s">
-        <v>60</v>
       </c>
       <c r="E23" s="45">
         <v>2</v>
@@ -4938,16 +4938,16 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="47">
+        <v>1</v>
+      </c>
+      <c r="D24" s="48" t="s">
         <v>61</v>
-      </c>
-      <c r="B24" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="47">
-        <v>1</v>
-      </c>
-      <c r="D24" s="48" t="s">
-        <v>62</v>
       </c>
       <c r="E24" s="47">
         <v>2</v>
@@ -4988,16 +4988,16 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="49">
+        <v>1</v>
+      </c>
+      <c r="D25" s="50" t="s">
         <v>63</v>
-      </c>
-      <c r="B25" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="49">
-        <v>1</v>
-      </c>
-      <c r="D25" s="50" t="s">
-        <v>64</v>
       </c>
       <c r="E25" s="49">
         <v>2</v>
@@ -5038,16 +5038,16 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="51">
+        <v>1</v>
+      </c>
+      <c r="D26" s="52" t="s">
         <v>65</v>
-      </c>
-      <c r="B26" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="51">
-        <v>1</v>
-      </c>
-      <c r="D26" s="52" t="s">
-        <v>66</v>
       </c>
       <c r="E26" s="51">
         <v>1</v>
@@ -5088,16 +5088,16 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="53">
+        <v>1</v>
+      </c>
+      <c r="D27" s="54" t="s">
         <v>67</v>
-      </c>
-      <c r="B27" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="53">
-        <v>1</v>
-      </c>
-      <c r="D27" s="54" t="s">
-        <v>68</v>
       </c>
       <c r="E27" s="53">
         <v>1</v>
@@ -5138,16 +5138,16 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="47">
+        <v>1</v>
+      </c>
+      <c r="D28" s="48" t="s">
         <v>69</v>
-      </c>
-      <c r="B28" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="47">
-        <v>1</v>
-      </c>
-      <c r="D28" s="48" t="s">
-        <v>70</v>
       </c>
       <c r="E28" s="47">
         <v>1</v>
@@ -5188,16 +5188,16 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="35">
+        <v>1</v>
+      </c>
+      <c r="D29" s="36" t="s">
         <v>71</v>
-      </c>
-      <c r="B29" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="35">
-        <v>1</v>
-      </c>
-      <c r="D29" s="36" t="s">
-        <v>72</v>
       </c>
       <c r="E29" s="35">
         <v>1</v>
@@ -5238,16 +5238,16 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="55">
+        <v>1</v>
+      </c>
+      <c r="D30" s="56" t="s">
         <v>73</v>
-      </c>
-      <c r="B30" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="55">
-        <v>1</v>
-      </c>
-      <c r="D30" s="56" t="s">
-        <v>74</v>
       </c>
       <c r="E30" s="55">
         <v>1</v>
@@ -5288,16 +5288,16 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="49">
+        <v>1</v>
+      </c>
+      <c r="D31" s="50" t="s">
         <v>75</v>
-      </c>
-      <c r="B31" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="49">
-        <v>1</v>
-      </c>
-      <c r="D31" s="50" t="s">
-        <v>76</v>
       </c>
       <c r="E31" s="49">
         <v>1</v>
@@ -5338,16 +5338,16 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="49">
+        <v>1</v>
+      </c>
+      <c r="D32" s="50" t="s">
         <v>77</v>
-      </c>
-      <c r="B32" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="49">
-        <v>1</v>
-      </c>
-      <c r="D32" s="50" t="s">
-        <v>78</v>
       </c>
       <c r="E32" s="49">
         <v>1</v>
@@ -5388,16 +5388,16 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="41">
+        <v>1</v>
+      </c>
+      <c r="D33" s="42" t="s">
         <v>79</v>
-      </c>
-      <c r="B33" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="41">
-        <v>1</v>
-      </c>
-      <c r="D33" s="42" t="s">
-        <v>80</v>
       </c>
       <c r="E33" s="41">
         <v>1</v>
@@ -5438,16 +5438,16 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="57">
+        <v>1</v>
+      </c>
+      <c r="D34" s="58" t="s">
         <v>81</v>
-      </c>
-      <c r="B34" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="57">
-        <v>1</v>
-      </c>
-      <c r="D34" s="58" t="s">
-        <v>82</v>
       </c>
       <c r="E34" s="57">
         <v>1</v>
@@ -5488,16 +5488,16 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="35">
+        <v>1</v>
+      </c>
+      <c r="D35" s="36" t="s">
         <v>83</v>
-      </c>
-      <c r="B35" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="35">
-        <v>1</v>
-      </c>
-      <c r="D35" s="36" t="s">
-        <v>84</v>
       </c>
       <c r="E35" s="35">
         <v>1</v>
@@ -5538,16 +5538,16 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="59">
+        <v>1</v>
+      </c>
+      <c r="D36" s="60" t="s">
         <v>85</v>
-      </c>
-      <c r="B36" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="59">
-        <v>1</v>
-      </c>
-      <c r="D36" s="60" t="s">
-        <v>86</v>
       </c>
       <c r="E36" s="59">
         <v>1</v>
@@ -5588,16 +5588,16 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="53">
+        <v>1</v>
+      </c>
+      <c r="D37" s="54" t="s">
         <v>87</v>
-      </c>
-      <c r="B37" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="53">
-        <v>1</v>
-      </c>
-      <c r="D37" s="54" t="s">
-        <v>88</v>
       </c>
       <c r="E37" s="53">
         <v>1</v>
@@ -5638,16 +5638,16 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="61">
+        <v>1</v>
+      </c>
+      <c r="D38" s="62" t="s">
         <v>89</v>
-      </c>
-      <c r="B38" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="61">
-        <v>1</v>
-      </c>
-      <c r="D38" s="62" t="s">
-        <v>90</v>
       </c>
       <c r="E38" s="61">
         <v>1</v>
@@ -5688,16 +5688,16 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B39" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="35">
+        <v>1</v>
+      </c>
+      <c r="D39" s="36" t="s">
         <v>91</v>
-      </c>
-      <c r="B39" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="35">
-        <v>1</v>
-      </c>
-      <c r="D39" s="36" t="s">
-        <v>92</v>
       </c>
       <c r="E39" s="35">
         <v>1</v>
@@ -5738,16 +5738,16 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="63" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="63">
+        <v>1</v>
+      </c>
+      <c r="D40" s="64" t="s">
         <v>93</v>
-      </c>
-      <c r="B40" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" s="63">
-        <v>1</v>
-      </c>
-      <c r="D40" s="64" t="s">
-        <v>94</v>
       </c>
       <c r="E40" s="63">
         <v>1</v>
@@ -5788,16 +5788,16 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="B41" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="53">
+        <v>1</v>
+      </c>
+      <c r="D41" s="54" t="s">
         <v>95</v>
-      </c>
-      <c r="B41" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" s="53">
-        <v>1</v>
-      </c>
-      <c r="D41" s="54" t="s">
-        <v>96</v>
       </c>
       <c r="E41" s="53">
         <v>1</v>
@@ -5838,16 +5838,16 @@
     </row>
     <row r="42" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A42" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="15">
+        <v>2</v>
+      </c>
+      <c r="D42" s="16" t="s">
         <v>97</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" s="15">
-        <v>2</v>
-      </c>
-      <c r="D42" s="16" t="s">
-        <v>98</v>
       </c>
       <c r="E42" s="15">
         <v>18</v>
@@ -5888,16 +5888,16 @@
     </row>
     <row r="43" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A43" s="65" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="65">
+        <v>2</v>
+      </c>
+      <c r="D43" s="66" t="s">
         <v>99</v>
-      </c>
-      <c r="B43" s="65" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43" s="65">
-        <v>2</v>
-      </c>
-      <c r="D43" s="66" t="s">
-        <v>100</v>
       </c>
       <c r="E43" s="65">
         <v>18</v>
@@ -5938,16 +5938,16 @@
     </row>
     <row r="44" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A44" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="67">
+        <v>2</v>
+      </c>
+      <c r="D44" s="68" t="s">
         <v>101</v>
-      </c>
-      <c r="B44" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="C44" s="67">
-        <v>2</v>
-      </c>
-      <c r="D44" s="68" t="s">
-        <v>102</v>
       </c>
       <c r="E44" s="67">
         <v>13</v>
@@ -5988,16 +5988,16 @@
     </row>
     <row r="45" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A45" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="B45" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="69">
+        <v>2</v>
+      </c>
+      <c r="D45" s="70" t="s">
         <v>103</v>
-      </c>
-      <c r="B45" s="69" t="s">
-        <v>17</v>
-      </c>
-      <c r="C45" s="69">
-        <v>2</v>
-      </c>
-      <c r="D45" s="70" t="s">
-        <v>104</v>
       </c>
       <c r="E45" s="69">
         <v>9</v>
@@ -6038,16 +6038,16 @@
     </row>
     <row r="46" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A46" s="71" t="s">
+        <v>104</v>
+      </c>
+      <c r="B46" s="71" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="71">
+        <v>2</v>
+      </c>
+      <c r="D46" s="72" t="s">
         <v>105</v>
-      </c>
-      <c r="B46" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="C46" s="71">
-        <v>2</v>
-      </c>
-      <c r="D46" s="72" t="s">
-        <v>106</v>
       </c>
       <c r="E46" s="71">
         <v>9</v>
@@ -6088,16 +6088,16 @@
     </row>
     <row r="47" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A47" s="73" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="73">
+        <v>2</v>
+      </c>
+      <c r="D47" s="74" t="s">
         <v>107</v>
-      </c>
-      <c r="B47" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="C47" s="73">
-        <v>2</v>
-      </c>
-      <c r="D47" s="74" t="s">
-        <v>108</v>
       </c>
       <c r="E47" s="73">
         <v>8</v>
@@ -6138,16 +6138,16 @@
     </row>
     <row r="48" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="75" t="s">
+        <v>108</v>
+      </c>
+      <c r="B48" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="75">
+        <v>2</v>
+      </c>
+      <c r="D48" s="76" t="s">
         <v>109</v>
-      </c>
-      <c r="B48" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="C48" s="75">
-        <v>2</v>
-      </c>
-      <c r="D48" s="76" t="s">
-        <v>110</v>
       </c>
       <c r="E48" s="75">
         <v>7</v>
@@ -6188,16 +6188,16 @@
     </row>
     <row r="49" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="77" t="s">
+        <v>110</v>
+      </c>
+      <c r="B49" s="77" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="77">
+        <v>2</v>
+      </c>
+      <c r="D49" s="78" t="s">
         <v>111</v>
-      </c>
-      <c r="B49" s="77" t="s">
-        <v>17</v>
-      </c>
-      <c r="C49" s="77">
-        <v>2</v>
-      </c>
-      <c r="D49" s="78" t="s">
-        <v>112</v>
       </c>
       <c r="E49" s="77">
         <v>6</v>
@@ -6238,16 +6238,16 @@
     </row>
     <row r="50" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="79" t="s">
+        <v>112</v>
+      </c>
+      <c r="B50" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="79">
+        <v>2</v>
+      </c>
+      <c r="D50" s="80" t="s">
         <v>113</v>
-      </c>
-      <c r="B50" s="79" t="s">
-        <v>17</v>
-      </c>
-      <c r="C50" s="79">
-        <v>2</v>
-      </c>
-      <c r="D50" s="80" t="s">
-        <v>114</v>
       </c>
       <c r="E50" s="79">
         <v>6</v>
@@ -6288,16 +6288,16 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="81" t="s">
+        <v>114</v>
+      </c>
+      <c r="B51" s="81" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="81">
+        <v>2</v>
+      </c>
+      <c r="D51" s="82" t="s">
         <v>115</v>
-      </c>
-      <c r="B51" s="81" t="s">
-        <v>17</v>
-      </c>
-      <c r="C51" s="81">
-        <v>2</v>
-      </c>
-      <c r="D51" s="82" t="s">
-        <v>116</v>
       </c>
       <c r="E51" s="81">
         <v>4</v>
@@ -6338,16 +6338,16 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="83" t="s">
+        <v>116</v>
+      </c>
+      <c r="B52" s="83" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="83">
+        <v>2</v>
+      </c>
+      <c r="D52" s="84" t="s">
         <v>117</v>
-      </c>
-      <c r="B52" s="83" t="s">
-        <v>17</v>
-      </c>
-      <c r="C52" s="83">
-        <v>2</v>
-      </c>
-      <c r="D52" s="84" t="s">
-        <v>118</v>
       </c>
       <c r="E52" s="83">
         <v>3</v>
@@ -6388,16 +6388,16 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="71" t="s">
+        <v>118</v>
+      </c>
+      <c r="B53" s="71" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" s="71">
+        <v>2</v>
+      </c>
+      <c r="D53" s="72" t="s">
         <v>119</v>
-      </c>
-      <c r="B53" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="C53" s="71">
-        <v>2</v>
-      </c>
-      <c r="D53" s="72" t="s">
-        <v>120</v>
       </c>
       <c r="E53" s="71">
         <v>3</v>
@@ -6438,16 +6438,16 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="B54" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="39">
+        <v>2</v>
+      </c>
+      <c r="D54" s="40" t="s">
         <v>121</v>
-      </c>
-      <c r="B54" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="C54" s="39">
-        <v>2</v>
-      </c>
-      <c r="D54" s="40" t="s">
-        <v>122</v>
       </c>
       <c r="E54" s="39">
         <v>3</v>
@@ -6488,16 +6488,16 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="85" t="s">
+        <v>122</v>
+      </c>
+      <c r="B55" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="85">
+        <v>2</v>
+      </c>
+      <c r="D55" s="86" t="s">
         <v>123</v>
-      </c>
-      <c r="B55" s="85" t="s">
-        <v>17</v>
-      </c>
-      <c r="C55" s="85">
-        <v>2</v>
-      </c>
-      <c r="D55" s="86" t="s">
-        <v>124</v>
       </c>
       <c r="E55" s="85">
         <v>3</v>
@@ -6538,16 +6538,16 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="87" t="s">
+        <v>124</v>
+      </c>
+      <c r="B56" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" s="87">
+        <v>2</v>
+      </c>
+      <c r="D56" s="88" t="s">
         <v>125</v>
-      </c>
-      <c r="B56" s="87" t="s">
-        <v>17</v>
-      </c>
-      <c r="C56" s="87">
-        <v>2</v>
-      </c>
-      <c r="D56" s="88" t="s">
-        <v>126</v>
       </c>
       <c r="E56" s="87">
         <v>3</v>
@@ -6588,16 +6588,16 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="89" t="s">
+        <v>126</v>
+      </c>
+      <c r="B57" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" s="89">
+        <v>2</v>
+      </c>
+      <c r="D57" s="90" t="s">
         <v>127</v>
-      </c>
-      <c r="B57" s="89" t="s">
-        <v>17</v>
-      </c>
-      <c r="C57" s="89">
-        <v>2</v>
-      </c>
-      <c r="D57" s="90" t="s">
-        <v>128</v>
       </c>
       <c r="E57" s="89">
         <v>3</v>
@@ -6638,16 +6638,16 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="73" t="s">
+        <v>128</v>
+      </c>
+      <c r="B58" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" s="73">
+        <v>2</v>
+      </c>
+      <c r="D58" s="74" t="s">
         <v>129</v>
-      </c>
-      <c r="B58" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="C58" s="73">
-        <v>2</v>
-      </c>
-      <c r="D58" s="74" t="s">
-        <v>130</v>
       </c>
       <c r="E58" s="73">
         <v>3</v>
@@ -6688,16 +6688,16 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="91" t="s">
+        <v>130</v>
+      </c>
+      <c r="B59" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="91">
+        <v>2</v>
+      </c>
+      <c r="D59" s="92" t="s">
         <v>131</v>
-      </c>
-      <c r="B59" s="91" t="s">
-        <v>17</v>
-      </c>
-      <c r="C59" s="91">
-        <v>2</v>
-      </c>
-      <c r="D59" s="92" t="s">
-        <v>132</v>
       </c>
       <c r="E59" s="91">
         <v>3</v>
@@ -6738,16 +6738,16 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="93" t="s">
+        <v>132</v>
+      </c>
+      <c r="B60" s="93" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="93">
+        <v>2</v>
+      </c>
+      <c r="D60" s="94" t="s">
         <v>133</v>
-      </c>
-      <c r="B60" s="93" t="s">
-        <v>17</v>
-      </c>
-      <c r="C60" s="93">
-        <v>2</v>
-      </c>
-      <c r="D60" s="94" t="s">
-        <v>134</v>
       </c>
       <c r="E60" s="93">
         <v>3</v>
@@ -6788,16 +6788,16 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="B61" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="61">
+        <v>2</v>
+      </c>
+      <c r="D61" s="62" t="s">
         <v>135</v>
-      </c>
-      <c r="B61" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="C61" s="61">
-        <v>2</v>
-      </c>
-      <c r="D61" s="62" t="s">
-        <v>136</v>
       </c>
       <c r="E61" s="61">
         <v>3</v>
@@ -6838,16 +6838,16 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="B62" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" s="35">
+        <v>2</v>
+      </c>
+      <c r="D62" s="36" t="s">
         <v>137</v>
-      </c>
-      <c r="B62" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C62" s="35">
-        <v>2</v>
-      </c>
-      <c r="D62" s="36" t="s">
-        <v>138</v>
       </c>
       <c r="E62" s="35">
         <v>3</v>
@@ -6888,16 +6888,16 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="95" t="s">
+        <v>138</v>
+      </c>
+      <c r="B63" s="95" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" s="95">
+        <v>2</v>
+      </c>
+      <c r="D63" s="96" t="s">
         <v>139</v>
-      </c>
-      <c r="B63" s="95" t="s">
-        <v>17</v>
-      </c>
-      <c r="C63" s="95">
-        <v>2</v>
-      </c>
-      <c r="D63" s="96" t="s">
-        <v>140</v>
       </c>
       <c r="E63" s="95">
         <v>3</v>
@@ -6938,16 +6938,16 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" s="13">
+        <v>2</v>
+      </c>
+      <c r="D64" s="14" t="s">
         <v>141</v>
-      </c>
-      <c r="B64" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C64" s="13">
-        <v>2</v>
-      </c>
-      <c r="D64" s="14" t="s">
-        <v>142</v>
       </c>
       <c r="E64" s="13">
         <v>3</v>
@@ -6988,16 +6988,16 @@
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="B65" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="31">
+        <v>2</v>
+      </c>
+      <c r="D65" s="32" t="s">
         <v>143</v>
-      </c>
-      <c r="B65" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C65" s="31">
-        <v>2</v>
-      </c>
-      <c r="D65" s="32" t="s">
-        <v>144</v>
       </c>
       <c r="E65" s="31">
         <v>2</v>
@@ -7038,16 +7038,16 @@
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" s="97" t="s">
+        <v>144</v>
+      </c>
+      <c r="B66" s="97" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="97">
+        <v>2</v>
+      </c>
+      <c r="D66" s="98" t="s">
         <v>145</v>
-      </c>
-      <c r="B66" s="97" t="s">
-        <v>17</v>
-      </c>
-      <c r="C66" s="97">
-        <v>2</v>
-      </c>
-      <c r="D66" s="98" t="s">
-        <v>146</v>
       </c>
       <c r="E66" s="97">
         <v>2</v>
@@ -7088,16 +7088,16 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" s="99" t="s">
+        <v>146</v>
+      </c>
+      <c r="B67" s="99" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" s="99">
+        <v>2</v>
+      </c>
+      <c r="D67" s="100" t="s">
         <v>147</v>
-      </c>
-      <c r="B67" s="99" t="s">
-        <v>17</v>
-      </c>
-      <c r="C67" s="99">
-        <v>2</v>
-      </c>
-      <c r="D67" s="100" t="s">
-        <v>148</v>
       </c>
       <c r="E67" s="99">
         <v>2</v>
@@ -7138,16 +7138,16 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" s="15">
+        <v>2</v>
+      </c>
+      <c r="D68" s="16" t="s">
         <v>149</v>
-      </c>
-      <c r="B68" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C68" s="15">
-        <v>2</v>
-      </c>
-      <c r="D68" s="16" t="s">
-        <v>150</v>
       </c>
       <c r="E68" s="15">
         <v>2</v>
@@ -7188,16 +7188,16 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="B69" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="43">
+        <v>2</v>
+      </c>
+      <c r="D69" s="44" t="s">
         <v>151</v>
-      </c>
-      <c r="B69" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="C69" s="43">
-        <v>2</v>
-      </c>
-      <c r="D69" s="44" t="s">
-        <v>152</v>
       </c>
       <c r="E69" s="43">
         <v>2</v>
@@ -7238,16 +7238,16 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" s="75" t="s">
+        <v>152</v>
+      </c>
+      <c r="B70" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" s="75">
+        <v>2</v>
+      </c>
+      <c r="D70" s="76" t="s">
         <v>153</v>
-      </c>
-      <c r="B70" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="C70" s="75">
-        <v>2</v>
-      </c>
-      <c r="D70" s="76" t="s">
-        <v>154</v>
       </c>
       <c r="E70" s="75">
         <v>2</v>
@@ -7291,13 +7291,13 @@
         <v>15033</v>
       </c>
       <c r="B71" s="81" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C71" s="81">
         <v>2</v>
       </c>
       <c r="D71" s="82" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E71" s="81">
         <v>2</v>
@@ -7338,16 +7338,16 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" s="101" t="s">
+        <v>155</v>
+      </c>
+      <c r="B72" s="101" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" s="101">
+        <v>2</v>
+      </c>
+      <c r="D72" s="102" t="s">
         <v>156</v>
-      </c>
-      <c r="B72" s="101" t="s">
-        <v>17</v>
-      </c>
-      <c r="C72" s="101">
-        <v>2</v>
-      </c>
-      <c r="D72" s="102" t="s">
-        <v>157</v>
       </c>
       <c r="E72" s="101">
         <v>2</v>
@@ -7388,16 +7388,16 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" s="75" t="s">
+        <v>157</v>
+      </c>
+      <c r="B73" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="C73" s="75">
+        <v>2</v>
+      </c>
+      <c r="D73" s="76" t="s">
         <v>158</v>
-      </c>
-      <c r="B73" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="C73" s="75">
-        <v>2</v>
-      </c>
-      <c r="D73" s="76" t="s">
-        <v>159</v>
       </c>
       <c r="E73" s="75">
         <v>2</v>
@@ -7438,16 +7438,16 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="B74" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" s="51">
+        <v>2</v>
+      </c>
+      <c r="D74" s="52" t="s">
         <v>160</v>
-      </c>
-      <c r="B74" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="C74" s="51">
-        <v>2</v>
-      </c>
-      <c r="D74" s="52" t="s">
-        <v>161</v>
       </c>
       <c r="E74" s="51">
         <v>2</v>
@@ -7488,16 +7488,16 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" s="103" t="s">
+        <v>161</v>
+      </c>
+      <c r="B75" s="103" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75" s="103">
+        <v>2</v>
+      </c>
+      <c r="D75" s="104" t="s">
         <v>162</v>
-      </c>
-      <c r="B75" s="103" t="s">
-        <v>17</v>
-      </c>
-      <c r="C75" s="103">
-        <v>2</v>
-      </c>
-      <c r="D75" s="104" t="s">
-        <v>163</v>
       </c>
       <c r="E75" s="103">
         <v>2</v>
@@ -7538,16 +7538,16 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" s="45" t="s">
+        <v>163</v>
+      </c>
+      <c r="B76" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" s="45">
+        <v>2</v>
+      </c>
+      <c r="D76" s="46" t="s">
         <v>164</v>
-      </c>
-      <c r="B76" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="C76" s="45">
-        <v>2</v>
-      </c>
-      <c r="D76" s="46" t="s">
-        <v>165</v>
       </c>
       <c r="E76" s="45">
         <v>1</v>
@@ -7588,16 +7588,16 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" s="75" t="s">
+        <v>165</v>
+      </c>
+      <c r="B77" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" s="75">
+        <v>2</v>
+      </c>
+      <c r="D77" s="76" t="s">
         <v>166</v>
-      </c>
-      <c r="B77" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="C77" s="75">
-        <v>2</v>
-      </c>
-      <c r="D77" s="76" t="s">
-        <v>167</v>
       </c>
       <c r="E77" s="75">
         <v>1</v>
@@ -7638,16 +7638,16 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" s="105" t="s">
+        <v>167</v>
+      </c>
+      <c r="B78" s="105" t="s">
+        <v>16</v>
+      </c>
+      <c r="C78" s="105">
+        <v>2</v>
+      </c>
+      <c r="D78" s="106" t="s">
         <v>168</v>
-      </c>
-      <c r="B78" s="105" t="s">
-        <v>17</v>
-      </c>
-      <c r="C78" s="105">
-        <v>2</v>
-      </c>
-      <c r="D78" s="106" t="s">
-        <v>169</v>
       </c>
       <c r="E78" s="105">
         <v>1</v>
@@ -7688,16 +7688,16 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="B79" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" s="39">
+        <v>2</v>
+      </c>
+      <c r="D79" s="40" t="s">
         <v>170</v>
-      </c>
-      <c r="B79" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="C79" s="39">
-        <v>2</v>
-      </c>
-      <c r="D79" s="40" t="s">
-        <v>171</v>
       </c>
       <c r="E79" s="39">
         <v>1</v>
@@ -7738,16 +7738,16 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" s="107" t="s">
+        <v>171</v>
+      </c>
+      <c r="B80" s="107" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80" s="107">
+        <v>2</v>
+      </c>
+      <c r="D80" s="108" t="s">
         <v>172</v>
-      </c>
-      <c r="B80" s="107" t="s">
-        <v>17</v>
-      </c>
-      <c r="C80" s="107">
-        <v>2</v>
-      </c>
-      <c r="D80" s="108" t="s">
-        <v>173</v>
       </c>
       <c r="E80" s="107">
         <v>1</v>
@@ -7788,16 +7788,16 @@
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" s="91" t="s">
+        <v>173</v>
+      </c>
+      <c r="B81" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" s="91">
+        <v>2</v>
+      </c>
+      <c r="D81" s="92" t="s">
         <v>174</v>
-      </c>
-      <c r="B81" s="91" t="s">
-        <v>17</v>
-      </c>
-      <c r="C81" s="91">
-        <v>2</v>
-      </c>
-      <c r="D81" s="92" t="s">
-        <v>175</v>
       </c>
       <c r="E81" s="91">
         <v>1</v>
@@ -7838,16 +7838,16 @@
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" s="91" t="s">
+        <v>175</v>
+      </c>
+      <c r="B82" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82" s="91">
+        <v>2</v>
+      </c>
+      <c r="D82" s="92" t="s">
         <v>176</v>
-      </c>
-      <c r="B82" s="91" t="s">
-        <v>17</v>
-      </c>
-      <c r="C82" s="91">
-        <v>2</v>
-      </c>
-      <c r="D82" s="92" t="s">
-        <v>177</v>
       </c>
       <c r="E82" s="91">
         <v>1</v>
@@ -7888,16 +7888,16 @@
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="B83" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C83" s="51">
+        <v>2</v>
+      </c>
+      <c r="D83" s="52" t="s">
         <v>178</v>
-      </c>
-      <c r="B83" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="C83" s="51">
-        <v>2</v>
-      </c>
-      <c r="D83" s="52" t="s">
-        <v>179</v>
       </c>
       <c r="E83" s="51">
         <v>1</v>
@@ -7938,16 +7938,16 @@
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="B84" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C84" s="45">
+        <v>2</v>
+      </c>
+      <c r="D84" s="46" t="s">
         <v>180</v>
-      </c>
-      <c r="B84" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="C84" s="45">
-        <v>2</v>
-      </c>
-      <c r="D84" s="46" t="s">
-        <v>181</v>
       </c>
       <c r="E84" s="45">
         <v>1</v>
@@ -7988,16 +7988,16 @@
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" s="53" t="s">
+        <v>181</v>
+      </c>
+      <c r="B85" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C85" s="53">
+        <v>2</v>
+      </c>
+      <c r="D85" s="54" t="s">
         <v>182</v>
-      </c>
-      <c r="B85" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="C85" s="53">
-        <v>2</v>
-      </c>
-      <c r="D85" s="54" t="s">
-        <v>183</v>
       </c>
       <c r="E85" s="53">
         <v>1</v>
@@ -8038,16 +8038,16 @@
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C86" s="1">
+        <v>2</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C86" s="1">
-        <v>2</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>185</v>
       </c>
       <c r="E86" s="1">
         <v>1</v>
@@ -8089,13 +8089,13 @@
         <v>298</v>
       </c>
       <c r="B87" s="51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C87" s="51">
         <v>2</v>
       </c>
       <c r="D87" s="52" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E87" s="51">
         <v>1</v>
@@ -8136,16 +8136,16 @@
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="B88" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="C88" s="55">
+        <v>2</v>
+      </c>
+      <c r="D88" s="56" t="s">
         <v>187</v>
-      </c>
-      <c r="B88" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="C88" s="55">
-        <v>2</v>
-      </c>
-      <c r="D88" s="56" t="s">
-        <v>188</v>
       </c>
       <c r="E88" s="55">
         <v>1</v>
@@ -8186,16 +8186,16 @@
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C89" s="1">
+        <v>2</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C89" s="1">
-        <v>2</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="E89" s="1">
         <v>1</v>
@@ -8234,16 +8234,16 @@
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90" s="49" t="s">
+        <v>190</v>
+      </c>
+      <c r="B90" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C90" s="49">
+        <v>2</v>
+      </c>
+      <c r="D90" s="50" t="s">
         <v>191</v>
-      </c>
-      <c r="B90" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="C90" s="49">
-        <v>2</v>
-      </c>
-      <c r="D90" s="50" t="s">
-        <v>192</v>
       </c>
       <c r="E90" s="49">
         <v>1</v>
@@ -8284,16 +8284,16 @@
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91" s="91" t="s">
+        <v>192</v>
+      </c>
+      <c r="B91" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="C91" s="91">
+        <v>2</v>
+      </c>
+      <c r="D91" s="92" t="s">
         <v>193</v>
-      </c>
-      <c r="B91" s="91" t="s">
-        <v>17</v>
-      </c>
-      <c r="C91" s="91">
-        <v>2</v>
-      </c>
-      <c r="D91" s="92" t="s">
-        <v>194</v>
       </c>
       <c r="E91" s="91">
         <v>1</v>
@@ -8334,16 +8334,16 @@
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" s="91" t="s">
+        <v>194</v>
+      </c>
+      <c r="B92" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="C92" s="91">
+        <v>2</v>
+      </c>
+      <c r="D92" s="92" t="s">
         <v>195</v>
-      </c>
-      <c r="B92" s="91" t="s">
-        <v>17</v>
-      </c>
-      <c r="C92" s="91">
-        <v>2</v>
-      </c>
-      <c r="D92" s="92" t="s">
-        <v>196</v>
       </c>
       <c r="E92" s="91">
         <v>1</v>
@@ -8384,16 +8384,16 @@
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93" s="109" t="s">
+        <v>196</v>
+      </c>
+      <c r="B93" s="109" t="s">
+        <v>16</v>
+      </c>
+      <c r="C93" s="109">
+        <v>2</v>
+      </c>
+      <c r="D93" s="110" t="s">
         <v>197</v>
-      </c>
-      <c r="B93" s="109" t="s">
-        <v>17</v>
-      </c>
-      <c r="C93" s="109">
-        <v>2</v>
-      </c>
-      <c r="D93" s="110" t="s">
-        <v>198</v>
       </c>
       <c r="E93" s="109">
         <v>1</v>
@@ -8434,16 +8434,16 @@
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="B94" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="C94" s="111">
+        <v>2</v>
+      </c>
+      <c r="D94" s="112" t="s">
         <v>199</v>
-      </c>
-      <c r="B94" s="111" t="s">
-        <v>17</v>
-      </c>
-      <c r="C94" s="111">
-        <v>2</v>
-      </c>
-      <c r="D94" s="112" t="s">
-        <v>200</v>
       </c>
       <c r="E94" s="111">
         <v>1</v>
@@ -8484,16 +8484,16 @@
     </row>
     <row r="95" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A95" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="B95" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C95" s="41">
+        <v>3</v>
+      </c>
+      <c r="D95" s="42" t="s">
         <v>201</v>
-      </c>
-      <c r="B95" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="C95" s="41">
-        <v>3</v>
-      </c>
-      <c r="D95" s="42" t="s">
-        <v>202</v>
       </c>
       <c r="E95" s="41">
         <v>16</v>
@@ -8534,16 +8534,16 @@
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96" s="75" t="s">
+        <v>202</v>
+      </c>
+      <c r="B96" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="C96" s="75">
+        <v>3</v>
+      </c>
+      <c r="D96" s="76" t="s">
         <v>203</v>
-      </c>
-      <c r="B96" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="C96" s="75">
-        <v>3</v>
-      </c>
-      <c r="D96" s="76" t="s">
-        <v>204</v>
       </c>
       <c r="E96" s="75">
         <v>4</v>
@@ -8584,16 +8584,16 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97" s="113" t="s">
+        <v>204</v>
+      </c>
+      <c r="B97" s="113" t="s">
+        <v>16</v>
+      </c>
+      <c r="C97" s="113">
+        <v>3</v>
+      </c>
+      <c r="D97" s="114" t="s">
         <v>205</v>
-      </c>
-      <c r="B97" s="113" t="s">
-        <v>17</v>
-      </c>
-      <c r="C97" s="113">
-        <v>3</v>
-      </c>
-      <c r="D97" s="114" t="s">
-        <v>206</v>
       </c>
       <c r="E97" s="113">
         <v>4</v>
@@ -8634,16 +8634,16 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="B98" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C98" s="41">
+        <v>3</v>
+      </c>
+      <c r="D98" s="42" t="s">
         <v>207</v>
-      </c>
-      <c r="B98" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="C98" s="41">
-        <v>3</v>
-      </c>
-      <c r="D98" s="42" t="s">
-        <v>208</v>
       </c>
       <c r="E98" s="41">
         <v>3</v>
@@ -8684,16 +8684,16 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99" s="115" t="s">
+        <v>208</v>
+      </c>
+      <c r="B99" s="115" t="s">
+        <v>16</v>
+      </c>
+      <c r="C99" s="115">
+        <v>3</v>
+      </c>
+      <c r="D99" s="116" t="s">
         <v>209</v>
-      </c>
-      <c r="B99" s="115" t="s">
-        <v>17</v>
-      </c>
-      <c r="C99" s="115">
-        <v>3</v>
-      </c>
-      <c r="D99" s="116" t="s">
-        <v>210</v>
       </c>
       <c r="E99" s="115">
         <v>3</v>
@@ -8734,16 +8734,16 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100" s="95" t="s">
+        <v>210</v>
+      </c>
+      <c r="B100" s="95" t="s">
+        <v>16</v>
+      </c>
+      <c r="C100" s="95">
+        <v>3</v>
+      </c>
+      <c r="D100" s="96" t="s">
         <v>211</v>
-      </c>
-      <c r="B100" s="95" t="s">
-        <v>17</v>
-      </c>
-      <c r="C100" s="95">
-        <v>3</v>
-      </c>
-      <c r="D100" s="96" t="s">
-        <v>212</v>
       </c>
       <c r="E100" s="95">
         <v>3</v>
@@ -8784,16 +8784,16 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101" s="105" t="s">
+        <v>212</v>
+      </c>
+      <c r="B101" s="105" t="s">
+        <v>16</v>
+      </c>
+      <c r="C101" s="105">
+        <v>3</v>
+      </c>
+      <c r="D101" s="106" t="s">
         <v>213</v>
-      </c>
-      <c r="B101" s="105" t="s">
-        <v>17</v>
-      </c>
-      <c r="C101" s="105">
-        <v>3</v>
-      </c>
-      <c r="D101" s="106" t="s">
-        <v>214</v>
       </c>
       <c r="E101" s="105">
         <v>2</v>
@@ -8834,16 +8834,16 @@
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102" s="97" t="s">
+        <v>214</v>
+      </c>
+      <c r="B102" s="97" t="s">
+        <v>16</v>
+      </c>
+      <c r="C102" s="97">
+        <v>3</v>
+      </c>
+      <c r="D102" s="98" t="s">
         <v>215</v>
-      </c>
-      <c r="B102" s="97" t="s">
-        <v>17</v>
-      </c>
-      <c r="C102" s="97">
-        <v>3</v>
-      </c>
-      <c r="D102" s="98" t="s">
-        <v>216</v>
       </c>
       <c r="E102" s="97">
         <v>2</v>
@@ -8884,16 +8884,16 @@
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" s="75" t="s">
+        <v>216</v>
+      </c>
+      <c r="B103" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="C103" s="75">
+        <v>3</v>
+      </c>
+      <c r="D103" s="76" t="s">
         <v>217</v>
-      </c>
-      <c r="B103" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="C103" s="75">
-        <v>3</v>
-      </c>
-      <c r="D103" s="76" t="s">
-        <v>218</v>
       </c>
       <c r="E103" s="75">
         <v>2</v>
@@ -8934,16 +8934,16 @@
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="B104" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C104" s="31">
+        <v>3</v>
+      </c>
+      <c r="D104" s="32" t="s">
         <v>219</v>
-      </c>
-      <c r="B104" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C104" s="31">
-        <v>3</v>
-      </c>
-      <c r="D104" s="32" t="s">
-        <v>220</v>
       </c>
       <c r="E104" s="31">
         <v>2</v>
@@ -8984,16 +8984,16 @@
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A105" s="111" t="s">
+        <v>220</v>
+      </c>
+      <c r="B105" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="C105" s="111">
+        <v>3</v>
+      </c>
+      <c r="D105" s="112" t="s">
         <v>221</v>
-      </c>
-      <c r="B105" s="111" t="s">
-        <v>17</v>
-      </c>
-      <c r="C105" s="111">
-        <v>3</v>
-      </c>
-      <c r="D105" s="112" t="s">
-        <v>222</v>
       </c>
       <c r="E105" s="111">
         <v>2</v>
@@ -9034,16 +9034,16 @@
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106" s="47" t="s">
+        <v>222</v>
+      </c>
+      <c r="B106" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C106" s="47">
+        <v>3</v>
+      </c>
+      <c r="D106" s="48" t="s">
         <v>223</v>
-      </c>
-      <c r="B106" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="C106" s="47">
-        <v>3</v>
-      </c>
-      <c r="D106" s="48" t="s">
-        <v>224</v>
       </c>
       <c r="E106" s="47">
         <v>2</v>
@@ -9084,16 +9084,16 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A107" s="101" t="s">
+        <v>224</v>
+      </c>
+      <c r="B107" s="101" t="s">
+        <v>16</v>
+      </c>
+      <c r="C107" s="101">
+        <v>3</v>
+      </c>
+      <c r="D107" s="102" t="s">
         <v>225</v>
-      </c>
-      <c r="B107" s="101" t="s">
-        <v>17</v>
-      </c>
-      <c r="C107" s="101">
-        <v>3</v>
-      </c>
-      <c r="D107" s="102" t="s">
-        <v>226</v>
       </c>
       <c r="E107" s="101">
         <v>2</v>
@@ -9134,16 +9134,16 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A108" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="B108" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C108" s="41">
+        <v>3</v>
+      </c>
+      <c r="D108" s="42" t="s">
         <v>227</v>
-      </c>
-      <c r="B108" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="C108" s="41">
-        <v>3</v>
-      </c>
-      <c r="D108" s="42" t="s">
-        <v>228</v>
       </c>
       <c r="E108" s="41">
         <v>2</v>
@@ -9184,16 +9184,16 @@
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109" s="75" t="s">
+        <v>228</v>
+      </c>
+      <c r="B109" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="C109" s="75">
+        <v>3</v>
+      </c>
+      <c r="D109" s="76" t="s">
         <v>229</v>
-      </c>
-      <c r="B109" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="C109" s="75">
-        <v>3</v>
-      </c>
-      <c r="D109" s="76" t="s">
-        <v>230</v>
       </c>
       <c r="E109" s="75">
         <v>2</v>
@@ -9234,16 +9234,16 @@
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A110" s="105" t="s">
+        <v>230</v>
+      </c>
+      <c r="B110" s="105" t="s">
+        <v>16</v>
+      </c>
+      <c r="C110" s="105">
+        <v>3</v>
+      </c>
+      <c r="D110" s="106" t="s">
         <v>231</v>
-      </c>
-      <c r="B110" s="105" t="s">
-        <v>17</v>
-      </c>
-      <c r="C110" s="105">
-        <v>3</v>
-      </c>
-      <c r="D110" s="106" t="s">
-        <v>232</v>
       </c>
       <c r="E110" s="105">
         <v>2</v>
@@ -9284,16 +9284,16 @@
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A111" s="117" t="s">
+        <v>232</v>
+      </c>
+      <c r="B111" s="117" t="s">
+        <v>16</v>
+      </c>
+      <c r="C111" s="117">
+        <v>3</v>
+      </c>
+      <c r="D111" s="118" t="s">
         <v>233</v>
-      </c>
-      <c r="B111" s="117" t="s">
-        <v>17</v>
-      </c>
-      <c r="C111" s="117">
-        <v>3</v>
-      </c>
-      <c r="D111" s="118" t="s">
-        <v>234</v>
       </c>
       <c r="E111" s="117">
         <v>2</v>
@@ -9334,16 +9334,16 @@
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A112" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="B112" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C112" s="39">
+        <v>3</v>
+      </c>
+      <c r="D112" s="40" t="s">
         <v>235</v>
-      </c>
-      <c r="B112" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="C112" s="39">
-        <v>3</v>
-      </c>
-      <c r="D112" s="40" t="s">
-        <v>236</v>
       </c>
       <c r="E112" s="39">
         <v>2</v>
@@ -9384,16 +9384,16 @@
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113" s="119" t="s">
+        <v>236</v>
+      </c>
+      <c r="B113" s="119" t="s">
+        <v>16</v>
+      </c>
+      <c r="C113" s="119">
+        <v>3</v>
+      </c>
+      <c r="D113" s="120" t="s">
         <v>237</v>
-      </c>
-      <c r="B113" s="119" t="s">
-        <v>17</v>
-      </c>
-      <c r="C113" s="119">
-        <v>3</v>
-      </c>
-      <c r="D113" s="120" t="s">
-        <v>238</v>
       </c>
       <c r="E113" s="119">
         <v>1</v>
@@ -9434,16 +9434,16 @@
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A114" s="111" t="s">
+        <v>238</v>
+      </c>
+      <c r="B114" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="C114" s="111">
+        <v>3</v>
+      </c>
+      <c r="D114" s="112" t="s">
         <v>239</v>
-      </c>
-      <c r="B114" s="111" t="s">
-        <v>17</v>
-      </c>
-      <c r="C114" s="111">
-        <v>3</v>
-      </c>
-      <c r="D114" s="112" t="s">
-        <v>240</v>
       </c>
       <c r="E114" s="111">
         <v>1</v>
@@ -9484,16 +9484,16 @@
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A115" s="105" t="s">
+        <v>240</v>
+      </c>
+      <c r="B115" s="105" t="s">
+        <v>16</v>
+      </c>
+      <c r="C115" s="105">
+        <v>3</v>
+      </c>
+      <c r="D115" s="106" t="s">
         <v>241</v>
-      </c>
-      <c r="B115" s="105" t="s">
-        <v>17</v>
-      </c>
-      <c r="C115" s="105">
-        <v>3</v>
-      </c>
-      <c r="D115" s="106" t="s">
-        <v>242</v>
       </c>
       <c r="E115" s="105">
         <v>1</v>
@@ -9534,16 +9534,16 @@
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A116" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="B116" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C116" s="19">
+        <v>3</v>
+      </c>
+      <c r="D116" s="20" t="s">
         <v>243</v>
-      </c>
-      <c r="B116" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C116" s="19">
-        <v>3</v>
-      </c>
-      <c r="D116" s="20" t="s">
-        <v>244</v>
       </c>
       <c r="E116" s="19">
         <v>1</v>
@@ -9584,16 +9584,16 @@
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A117" s="105" t="s">
+        <v>244</v>
+      </c>
+      <c r="B117" s="105" t="s">
+        <v>16</v>
+      </c>
+      <c r="C117" s="105">
+        <v>3</v>
+      </c>
+      <c r="D117" s="106" t="s">
         <v>245</v>
-      </c>
-      <c r="B117" s="105" t="s">
-        <v>17</v>
-      </c>
-      <c r="C117" s="105">
-        <v>3</v>
-      </c>
-      <c r="D117" s="106" t="s">
-        <v>246</v>
       </c>
       <c r="E117" s="105">
         <v>1</v>
@@ -9634,16 +9634,16 @@
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C118" s="1">
+        <v>3</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C118" s="1">
-        <v>3</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>248</v>
       </c>
       <c r="E118" s="1">
         <v>1</v>
@@ -9682,16 +9682,16 @@
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119" s="81" t="s">
+        <v>248</v>
+      </c>
+      <c r="B119" s="81" t="s">
+        <v>16</v>
+      </c>
+      <c r="C119" s="81">
+        <v>3</v>
+      </c>
+      <c r="D119" s="82" t="s">
         <v>249</v>
-      </c>
-      <c r="B119" s="81" t="s">
-        <v>17</v>
-      </c>
-      <c r="C119" s="81">
-        <v>3</v>
-      </c>
-      <c r="D119" s="82" t="s">
-        <v>250</v>
       </c>
       <c r="E119" s="81">
         <v>1</v>
@@ -9732,16 +9732,16 @@
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A120" s="39" t="s">
+        <v>250</v>
+      </c>
+      <c r="B120" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C120" s="39">
+        <v>3</v>
+      </c>
+      <c r="D120" s="40" t="s">
         <v>251</v>
-      </c>
-      <c r="B120" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="C120" s="39">
-        <v>3</v>
-      </c>
-      <c r="D120" s="40" t="s">
-        <v>252</v>
       </c>
       <c r="E120" s="39">
         <v>1</v>
@@ -9785,13 +9785,13 @@
         <v>52</v>
       </c>
       <c r="B121" s="111" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C121" s="111">
         <v>3</v>
       </c>
       <c r="D121" s="112" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E121" s="111">
         <v>1</v>
@@ -9832,16 +9832,16 @@
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122" s="91" t="s">
+        <v>253</v>
+      </c>
+      <c r="B122" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="C122" s="91">
+        <v>3</v>
+      </c>
+      <c r="D122" s="92" t="s">
         <v>254</v>
-      </c>
-      <c r="B122" s="91" t="s">
-        <v>17</v>
-      </c>
-      <c r="C122" s="91">
-        <v>3</v>
-      </c>
-      <c r="D122" s="92" t="s">
-        <v>255</v>
       </c>
       <c r="E122" s="91">
         <v>1</v>
@@ -9882,16 +9882,16 @@
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A123" s="51" t="s">
+        <v>255</v>
+      </c>
+      <c r="B123" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C123" s="51">
+        <v>3</v>
+      </c>
+      <c r="D123" s="52" t="s">
         <v>256</v>
-      </c>
-      <c r="B123" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="C123" s="51">
-        <v>3</v>
-      </c>
-      <c r="D123" s="52" t="s">
-        <v>257</v>
       </c>
       <c r="E123" s="51">
         <v>1</v>
@@ -9932,16 +9932,16 @@
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C124" s="1">
+        <v>3</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C124" s="1">
-        <v>3</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>259</v>
       </c>
       <c r="E124" s="1">
         <v>1</v>
@@ -9980,16 +9980,16 @@
     </row>
     <row r="125" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A125" s="111" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B125" s="111" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C125" s="111">
         <v>4</v>
       </c>
       <c r="D125" s="112" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E125" s="111">
         <v>24</v>
@@ -10030,16 +10030,16 @@
     </row>
     <row r="126" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A126" s="121" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B126" s="121" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C126" s="121">
         <v>4</v>
       </c>
       <c r="D126" s="122" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E126" s="121">
         <v>18</v>
@@ -10080,16 +10080,16 @@
     </row>
     <row r="127" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A127" s="123" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B127" s="123" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C127" s="123">
         <v>4</v>
       </c>
       <c r="D127" s="124" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E127" s="123">
         <v>18</v>
@@ -10130,16 +10130,16 @@
     </row>
     <row r="128" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" s="123" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B128" s="123" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C128" s="123">
         <v>4</v>
       </c>
       <c r="D128" s="124" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E128" s="123">
         <v>7</v>
@@ -10180,16 +10180,16 @@
     </row>
     <row r="129" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A129" s="125" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B129" s="125" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C129" s="125">
         <v>4</v>
       </c>
       <c r="D129" s="126" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E129" s="125">
         <v>6</v>
@@ -10230,16 +10230,16 @@
     </row>
     <row r="130" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A130" s="127" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B130" s="127" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C130" s="127">
         <v>4</v>
       </c>
       <c r="D130" s="128" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E130" s="127">
         <v>5</v>
@@ -10280,16 +10280,16 @@
     </row>
     <row r="131" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A131" s="129" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B131" s="129" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C131" s="129">
         <v>4</v>
       </c>
       <c r="D131" s="130" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E131" s="129">
         <v>4</v>
@@ -10330,16 +10330,16 @@
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A132" s="39" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B132" s="39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C132" s="39">
         <v>4</v>
       </c>
       <c r="D132" s="40" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E132" s="39">
         <v>4</v>
@@ -10380,16 +10380,16 @@
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A133" s="129" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B133" s="129" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C133" s="129">
         <v>4</v>
       </c>
       <c r="D133" s="130" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E133" s="129">
         <v>3</v>
@@ -10430,16 +10430,16 @@
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A134" s="131" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B134" s="131" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C134" s="131">
         <v>4</v>
       </c>
       <c r="D134" s="132" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E134" s="131">
         <v>3</v>
@@ -10480,16 +10480,16 @@
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A135" s="111" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B135" s="111" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C135" s="111">
         <v>4</v>
       </c>
       <c r="D135" s="112" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E135" s="111">
         <v>3</v>
@@ -10530,16 +10530,16 @@
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A136" s="105" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B136" s="105" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C136" s="105">
         <v>4</v>
       </c>
       <c r="D136" s="106" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E136" s="105">
         <v>2</v>
@@ -10580,16 +10580,16 @@
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A137" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B137" s="97" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C137" s="97">
         <v>4</v>
       </c>
       <c r="D137" s="98" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E137" s="97">
         <v>1</v>
@@ -10630,16 +10630,16 @@
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A138" s="75" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B138" s="75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C138" s="75">
         <v>4</v>
       </c>
       <c r="D138" s="76" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E138" s="75">
         <v>1</v>
@@ -10680,14 +10680,14 @@
     </row>
     <row r="139" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C139" s="1"/>
       <c r="D139" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E139" s="1">
         <v>12</v>
@@ -10726,14 +10726,14 @@
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C140" s="1"/>
       <c r="D140" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E140" s="1">
         <v>3</v>
@@ -10775,11 +10775,11 @@
         <v>2490</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C141" s="1"/>
       <c r="D141" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E141" s="1">
         <v>3</v>
@@ -10818,14 +10818,14 @@
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C142" s="1"/>
       <c r="D142" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E142" s="1">
         <v>3</v>
@@ -10864,14 +10864,14 @@
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C143" s="1"/>
       <c r="D143" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E143" s="1">
         <v>3</v>
@@ -10910,14 +10910,14 @@
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C144" s="1"/>
       <c r="D144" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E144" s="1">
         <v>3</v>
@@ -10956,14 +10956,14 @@
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C145" s="1"/>
       <c r="D145" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E145" s="1">
         <v>2</v>
@@ -11002,14 +11002,14 @@
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C146" s="1"/>
       <c r="D146" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E146" s="1">
         <v>1</v>
@@ -11048,14 +11048,14 @@
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C147" s="1"/>
       <c r="D147" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E147" s="1">
         <v>1</v>
@@ -11094,14 +11094,14 @@
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C148" s="1"/>
       <c r="D148" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E148" s="1">
         <v>1</v>
@@ -11140,14 +11140,14 @@
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C149" s="1"/>
       <c r="D149" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E149" s="1">
         <v>1</v>
@@ -11186,14 +11186,14 @@
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A150" s="75" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B150" s="75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C150" s="75"/>
       <c r="D150" s="76" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E150" s="75">
         <v>1</v>
@@ -11234,14 +11234,14 @@
     </row>
     <row r="151" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C151" s="1"/>
       <c r="D151" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E151" s="1">
         <v>16</v>
@@ -11280,14 +11280,14 @@
     </row>
     <row r="152" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A152" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C152" s="9"/>
       <c r="D152" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E152" s="9">
         <v>6</v>
@@ -11328,14 +11328,14 @@
     </row>
     <row r="153" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A153" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B153" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C153" s="19"/>
       <c r="D153" s="20" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E153" s="19">
         <v>6</v>
@@ -11376,14 +11376,14 @@
     </row>
     <row r="154" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C154" s="1"/>
       <c r="D154" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E154" s="1">
         <v>6</v>
@@ -11422,14 +11422,14 @@
     </row>
     <row r="155" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A155" s="71" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B155" s="71" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C155" s="71"/>
       <c r="D155" s="72" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E155" s="71">
         <v>6</v>
@@ -11470,14 +11470,14 @@
     </row>
     <row r="156" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C156" s="1"/>
       <c r="D156" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E156" s="1">
         <v>6</v>
@@ -11516,14 +11516,14 @@
     </row>
     <row r="157" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A157" s="11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C157" s="11"/>
       <c r="D157" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E157" s="11">
         <v>5</v>
@@ -11564,14 +11564,14 @@
     </row>
     <row r="158" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A158" s="53" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B158" s="53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C158" s="53"/>
       <c r="D158" s="54" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E158" s="53">
         <v>5</v>
@@ -11612,14 +11612,14 @@
     </row>
     <row r="159" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A159" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C159" s="7"/>
       <c r="D159" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E159" s="7">
         <v>4</v>
@@ -11660,14 +11660,14 @@
     </row>
     <row r="160" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A160" s="31" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B160" s="31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C160" s="31"/>
       <c r="D160" s="32" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E160" s="31">
         <v>4</v>
@@ -11708,14 +11708,14 @@
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A161" s="17" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B161" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C161" s="17"/>
       <c r="D161" s="18" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E161" s="17">
         <v>4</v>
@@ -11756,14 +11756,14 @@
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A162" s="75" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B162" s="75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C162" s="75"/>
       <c r="D162" s="76" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E162" s="75">
         <v>4</v>
@@ -11804,14 +11804,14 @@
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A163" s="95" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B163" s="95" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C163" s="95"/>
       <c r="D163" s="96" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E163" s="95">
         <v>4</v>
@@ -11852,14 +11852,14 @@
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C164" s="1"/>
       <c r="D164" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E164" s="1">
         <v>4</v>
@@ -11898,14 +11898,14 @@
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C165" s="1"/>
       <c r="D165" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E165" s="1">
         <v>4</v>
@@ -11944,14 +11944,14 @@
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A166" s="51" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B166" s="51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C166" s="51"/>
       <c r="D166" s="52" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E166" s="51">
         <v>4</v>
@@ -11992,14 +11992,14 @@
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C167" s="1"/>
       <c r="D167" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E167" s="1">
         <v>4</v>
@@ -12038,14 +12038,14 @@
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A168" s="192" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B168" s="133" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C168" s="133"/>
       <c r="D168" s="134" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E168" s="133">
         <v>3</v>
@@ -12086,14 +12086,14 @@
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A169" s="135" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B169" s="135" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C169" s="135"/>
       <c r="D169" s="136" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E169" s="135">
         <v>3</v>
@@ -12134,14 +12134,14 @@
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A170" s="19" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B170" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C170" s="19"/>
       <c r="D170" s="20" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E170" s="19">
         <v>3</v>
@@ -12185,11 +12185,11 @@
         <v>604</v>
       </c>
       <c r="B171" s="137" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C171" s="137"/>
       <c r="D171" s="138" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E171" s="137">
         <v>3</v>
@@ -12230,14 +12230,14 @@
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A172" s="91" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B172" s="91" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C172" s="91"/>
       <c r="D172" s="92" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E172" s="91">
         <v>3</v>
@@ -12278,14 +12278,14 @@
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A173" s="139" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B173" s="139" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C173" s="139"/>
       <c r="D173" s="140" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E173" s="139">
         <v>3</v>
@@ -12326,14 +12326,14 @@
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A174" s="39" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B174" s="39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C174" s="39"/>
       <c r="D174" s="40" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E174" s="39">
         <v>3</v>
@@ -12374,14 +12374,14 @@
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A175" s="31" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B175" s="31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C175" s="31"/>
       <c r="D175" s="32" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E175" s="31">
         <v>3</v>
@@ -12422,14 +12422,14 @@
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A176" s="186" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C176" s="1"/>
       <c r="D176" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E176" s="1">
         <v>3</v>
@@ -12468,14 +12468,14 @@
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A177" s="186" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C177" s="1"/>
       <c r="D177" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E177" s="1">
         <v>3</v>
@@ -12514,14 +12514,14 @@
     </row>
     <row r="178" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A178" s="187" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B178" s="55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C178" s="55"/>
       <c r="D178" s="56" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E178" s="55">
         <v>3</v>
@@ -12562,14 +12562,14 @@
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A179" s="65" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B179" s="65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C179" s="65"/>
       <c r="D179" s="66" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E179" s="65">
         <v>3</v>
@@ -12610,14 +12610,14 @@
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A180" s="186" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C180" s="1"/>
       <c r="D180" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E180" s="1">
         <v>3</v>
@@ -12656,14 +12656,14 @@
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A181" s="189" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B181" s="49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C181" s="49"/>
       <c r="D181" s="50" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E181" s="49">
         <v>3</v>
@@ -12704,14 +12704,14 @@
     </row>
     <row r="182" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A182" s="191" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B182" s="131" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C182" s="131"/>
       <c r="D182" s="132" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E182" s="131">
         <v>3</v>
@@ -12752,14 +12752,14 @@
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A183" s="186" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C183" s="1"/>
       <c r="D183" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E183" s="1">
         <v>3</v>
@@ -12798,14 +12798,14 @@
     </row>
     <row r="184" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A184" s="141" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B184" s="141" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C184" s="141"/>
       <c r="D184" s="142" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E184" s="141">
         <v>2</v>
@@ -12846,14 +12846,14 @@
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A185" s="45" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B185" s="45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C185" s="45"/>
       <c r="D185" s="46" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E185" s="45">
         <v>2</v>
@@ -12894,14 +12894,14 @@
     </row>
     <row r="186" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A186" s="111" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B186" s="111" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C186" s="111"/>
       <c r="D186" s="112" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E186" s="111">
         <v>2</v>
@@ -12942,14 +12942,14 @@
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A187" s="143" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B187" s="143" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C187" s="143"/>
       <c r="D187" s="144" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E187" s="143">
         <v>2</v>
@@ -12990,14 +12990,14 @@
     </row>
     <row r="188" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A188" s="19" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B188" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C188" s="19"/>
       <c r="D188" s="20" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E188" s="19">
         <v>2</v>
@@ -13038,14 +13038,14 @@
     </row>
     <row r="189" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A189" s="145" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B189" s="145" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C189" s="145"/>
       <c r="D189" s="146" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E189" s="145">
         <v>2</v>
@@ -13086,14 +13086,14 @@
     </row>
     <row r="190" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A190" s="91" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B190" s="91" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C190" s="91"/>
       <c r="D190" s="92" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E190" s="91">
         <v>2</v>
@@ -13134,14 +13134,14 @@
     </row>
     <row r="191" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A191" s="147" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B191" s="147" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C191" s="147"/>
       <c r="D191" s="148" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E191" s="147">
         <v>2</v>
@@ -13182,14 +13182,14 @@
     </row>
     <row r="192" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A192" s="97" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B192" s="97" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C192" s="97"/>
       <c r="D192" s="98" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E192" s="97">
         <v>2</v>
@@ -13230,14 +13230,14 @@
     </row>
     <row r="193" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A193" s="141" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B193" s="141" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C193" s="141"/>
       <c r="D193" s="142" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E193" s="141">
         <v>2</v>
@@ -13278,14 +13278,14 @@
     </row>
     <row r="194" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A194" s="186" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C194" s="1"/>
       <c r="D194" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E194" s="1">
         <v>2</v>
@@ -13324,14 +13324,14 @@
     </row>
     <row r="195" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A195" s="188" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B195" s="39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C195" s="39"/>
       <c r="D195" s="40" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E195" s="39">
         <v>2</v>
@@ -13372,14 +13372,14 @@
     </row>
     <row r="196" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A196" s="149" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B196" s="149" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C196" s="149"/>
       <c r="D196" s="150" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E196" s="149">
         <v>2</v>
@@ -13420,14 +13420,14 @@
     </row>
     <row r="197" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A197" s="39" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B197" s="39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C197" s="39"/>
       <c r="D197" s="40" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E197" s="39">
         <v>2</v>
@@ -13468,14 +13468,14 @@
     </row>
     <row r="198" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A198" s="105" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B198" s="105" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C198" s="105"/>
       <c r="D198" s="106" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E198" s="105">
         <v>2</v>
@@ -13516,14 +13516,14 @@
     </row>
     <row r="199" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C199" s="1"/>
       <c r="D199" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E199" s="1">
         <v>2</v>
@@ -13562,14 +13562,14 @@
     </row>
     <row r="200" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A200" s="75" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B200" s="75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C200" s="75"/>
       <c r="D200" s="76" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E200" s="75">
         <v>2</v>
@@ -13610,14 +13610,14 @@
     </row>
     <row r="201" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A201" s="75" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B201" s="75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C201" s="75"/>
       <c r="D201" s="76" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E201" s="75">
         <v>1</v>
@@ -13658,14 +13658,14 @@
     </row>
     <row r="202" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A202" s="149" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B202" s="149" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C202" s="149"/>
       <c r="D202" s="150" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E202" s="149">
         <v>1</v>
@@ -13706,14 +13706,14 @@
     </row>
     <row r="203" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A203" s="75" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B203" s="75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C203" s="75"/>
       <c r="D203" s="76" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E203" s="75">
         <v>1</v>
@@ -13754,14 +13754,14 @@
     </row>
     <row r="204" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A204" s="151" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B204" s="151" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C204" s="151"/>
       <c r="D204" s="152" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E204" s="151">
         <v>1</v>
@@ -13802,14 +13802,14 @@
     </row>
     <row r="205" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A205" s="75" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B205" s="75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C205" s="75"/>
       <c r="D205" s="76" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E205" s="75">
         <v>1</v>
@@ -13850,14 +13850,14 @@
     </row>
     <row r="206" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A206" s="91" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B206" s="91" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C206" s="91"/>
       <c r="D206" s="92" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E206" s="91">
         <v>1</v>
@@ -13898,14 +13898,14 @@
     </row>
     <row r="207" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A207" s="81" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B207" s="81" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C207" s="81"/>
       <c r="D207" s="82" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E207" s="81">
         <v>1</v>
@@ -13946,14 +13946,14 @@
     </row>
     <row r="208" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A208" s="105" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B208" s="105" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C208" s="105"/>
       <c r="D208" s="106" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E208" s="105">
         <v>1</v>
@@ -13994,14 +13994,14 @@
     </row>
     <row r="209" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A209" s="57" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B209" s="57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C209" s="57"/>
       <c r="D209" s="58" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E209" s="57">
         <v>1</v>
@@ -14042,14 +14042,14 @@
     </row>
     <row r="210" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A210" s="91" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B210" s="91" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C210" s="91"/>
       <c r="D210" s="92" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E210" s="91">
         <v>1</v>
@@ -14090,14 +14090,14 @@
     </row>
     <row r="211" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A211" s="75" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B211" s="75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C211" s="75"/>
       <c r="D211" s="76" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E211" s="75">
         <v>1</v>
@@ -14138,14 +14138,14 @@
     </row>
     <row r="212" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A212" s="97" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B212" s="97" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C212" s="97"/>
       <c r="D212" s="98" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E212" s="97">
         <v>1</v>
@@ -14186,14 +14186,14 @@
     </row>
     <row r="213" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A213" s="45" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B213" s="45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C213" s="45"/>
       <c r="D213" s="46" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E213" s="45">
         <v>1</v>
@@ -14234,14 +14234,14 @@
     </row>
     <row r="214" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A214" s="53" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B214" s="53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C214" s="53"/>
       <c r="D214" s="54" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E214" s="53">
         <v>1</v>
@@ -14282,14 +14282,14 @@
     </row>
     <row r="215" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A215" s="186" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C215" s="1"/>
       <c r="D215" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E215" s="1">
         <v>1</v>
@@ -14328,14 +14328,14 @@
     </row>
     <row r="216" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A216" s="186" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C216" s="1"/>
       <c r="D216" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E216" s="1">
         <v>1</v>
@@ -14374,14 +14374,14 @@
     </row>
     <row r="217" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A217" s="190" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B217" s="81" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C217" s="81"/>
       <c r="D217" s="82" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E217" s="81">
         <v>1</v>
@@ -14422,14 +14422,14 @@
     </row>
     <row r="218" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C218" s="1"/>
       <c r="D218" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E218" s="1">
         <v>0</v>
@@ -14468,14 +14468,14 @@
     </row>
     <row r="219" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C219" s="1"/>
       <c r="D219" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E219" s="1">
         <v>1</v>
@@ -14514,14 +14514,14 @@
     </row>
     <row r="220" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A220" s="109" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B220" s="109" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C220" s="109"/>
       <c r="D220" s="110" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E220" s="109">
         <v>1</v>
@@ -14562,14 +14562,14 @@
     </row>
     <row r="221" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A221" s="57" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B221" s="57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C221" s="57"/>
       <c r="D221" s="58" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E221" s="57">
         <v>1</v>
@@ -14610,14 +14610,14 @@
     </row>
     <row r="222" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A222" s="57" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B222" s="57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C222" s="57"/>
       <c r="D222" s="58" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E222" s="57">
         <v>1</v>
@@ -14658,14 +14658,14 @@
     </row>
     <row r="223" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A223" s="49" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B223" s="49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C223" s="49"/>
       <c r="D223" s="50" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E223" s="49">
         <v>1</v>
@@ -14706,14 +14706,14 @@
     </row>
     <row r="224" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A224" s="51" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B224" s="51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C224" s="51"/>
       <c r="D224" s="52" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E224" s="51">
         <v>1</v>
@@ -14754,14 +14754,14 @@
     </row>
     <row r="225" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A225" s="41" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B225" s="41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C225" s="41"/>
       <c r="D225" s="42" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E225" s="41">
         <v>1</v>
@@ -14802,14 +14802,14 @@
     </row>
     <row r="226" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A226" s="75" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B226" s="75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C226" s="75"/>
       <c r="D226" s="76" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E226" s="75">
         <v>1</v>
@@ -14850,14 +14850,14 @@
     </row>
     <row r="227" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A227" s="19" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B227" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C227" s="19"/>
       <c r="D227" s="20" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E227" s="19">
         <v>1</v>
@@ -14898,14 +14898,14 @@
     </row>
     <row r="228" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A228" s="53" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B228" s="53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C228" s="53"/>
       <c r="D228" s="54" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E228" s="53">
         <v>1</v>
@@ -14946,14 +14946,14 @@
     </row>
     <row r="229" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A229" s="75" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B229" s="75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C229" s="75"/>
       <c r="D229" s="76" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E229" s="75">
         <v>1</v>
@@ -14994,14 +14994,14 @@
     </row>
     <row r="230" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A230" s="19" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B230" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C230" s="19"/>
       <c r="D230" s="20" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E230" s="19">
         <v>1</v>
@@ -15042,14 +15042,14 @@
     </row>
     <row r="231" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A231" s="81" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B231" s="81" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C231" s="81"/>
       <c r="D231" s="82" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E231" s="81">
         <v>1</v>
@@ -15090,14 +15090,14 @@
     </row>
     <row r="232" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A232" s="53" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B232" s="53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C232" s="53"/>
       <c r="D232" s="54" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E232" s="53">
         <v>1</v>
@@ -15138,14 +15138,14 @@
     </row>
     <row r="233" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C233" s="1"/>
       <c r="D233" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E233" s="1">
         <v>0</v>
@@ -15184,14 +15184,14 @@
     </row>
     <row r="234" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A234" s="57" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B234" s="57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C234" s="57"/>
       <c r="D234" s="58" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E234" s="57">
         <v>1</v>
@@ -15232,14 +15232,14 @@
     </row>
     <row r="235" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C235" s="1"/>
       <c r="D235" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E235" s="1">
         <v>0</v>
@@ -15278,14 +15278,14 @@
     </row>
     <row r="236" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A236" s="49" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B236" s="49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C236" s="49"/>
       <c r="D236" s="50" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E236" s="49">
         <v>1</v>
@@ -15326,14 +15326,14 @@
     </row>
     <row r="237" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A237" s="105" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B237" s="105" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C237" s="105"/>
       <c r="D237" s="106" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E237" s="105">
         <v>1</v>
@@ -15374,16 +15374,16 @@
     </row>
     <row r="238" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A238" s="15" t="s">
+        <v>469</v>
+      </c>
+      <c r="B238" s="15" t="s">
         <v>470</v>
       </c>
-      <c r="B238" s="15" t="s">
+      <c r="C238" s="15">
+        <v>1</v>
+      </c>
+      <c r="D238" s="16" t="s">
         <v>471</v>
-      </c>
-      <c r="C238" s="15">
-        <v>1</v>
-      </c>
-      <c r="D238" s="16" t="s">
-        <v>472</v>
       </c>
       <c r="E238" s="15">
         <v>6</v>
@@ -15424,16 +15424,16 @@
     </row>
     <row r="239" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A239" s="153" t="s">
+        <v>472</v>
+      </c>
+      <c r="B239" s="153" t="s">
+        <v>470</v>
+      </c>
+      <c r="C239" s="153">
+        <v>2</v>
+      </c>
+      <c r="D239" s="154" t="s">
         <v>473</v>
-      </c>
-      <c r="B239" s="153" t="s">
-        <v>471</v>
-      </c>
-      <c r="C239" s="153">
-        <v>2</v>
-      </c>
-      <c r="D239" s="154" t="s">
-        <v>474</v>
       </c>
       <c r="E239" s="153">
         <v>9</v>
@@ -15474,16 +15474,16 @@
     </row>
     <row r="240" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A240" s="155" t="s">
+        <v>474</v>
+      </c>
+      <c r="B240" s="155" t="s">
+        <v>470</v>
+      </c>
+      <c r="C240" s="155">
+        <v>2</v>
+      </c>
+      <c r="D240" s="156" t="s">
         <v>475</v>
-      </c>
-      <c r="B240" s="155" t="s">
-        <v>471</v>
-      </c>
-      <c r="C240" s="155">
-        <v>2</v>
-      </c>
-      <c r="D240" s="156" t="s">
-        <v>476</v>
       </c>
       <c r="E240" s="155">
         <v>8</v>
@@ -15524,16 +15524,16 @@
     </row>
     <row r="241" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A241" s="157" t="s">
+        <v>476</v>
+      </c>
+      <c r="B241" s="157" t="s">
+        <v>470</v>
+      </c>
+      <c r="C241" s="157">
+        <v>2</v>
+      </c>
+      <c r="D241" s="158" t="s">
         <v>477</v>
-      </c>
-      <c r="B241" s="157" t="s">
-        <v>471</v>
-      </c>
-      <c r="C241" s="157">
-        <v>2</v>
-      </c>
-      <c r="D241" s="158" t="s">
-        <v>478</v>
       </c>
       <c r="E241" s="157">
         <v>7</v>
@@ -15574,16 +15574,16 @@
     </row>
     <row r="242" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A242" s="159" t="s">
+        <v>478</v>
+      </c>
+      <c r="B242" s="159" t="s">
+        <v>470</v>
+      </c>
+      <c r="C242" s="159">
+        <v>2</v>
+      </c>
+      <c r="D242" s="160" t="s">
         <v>479</v>
-      </c>
-      <c r="B242" s="159" t="s">
-        <v>471</v>
-      </c>
-      <c r="C242" s="159">
-        <v>2</v>
-      </c>
-      <c r="D242" s="160" t="s">
-        <v>480</v>
       </c>
       <c r="E242" s="159">
         <v>6</v>
@@ -15624,16 +15624,16 @@
     </row>
     <row r="243" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A243" s="161" t="s">
+        <v>480</v>
+      </c>
+      <c r="B243" s="161" t="s">
+        <v>470</v>
+      </c>
+      <c r="C243" s="161">
+        <v>2</v>
+      </c>
+      <c r="D243" s="162" t="s">
         <v>481</v>
-      </c>
-      <c r="B243" s="161" t="s">
-        <v>471</v>
-      </c>
-      <c r="C243" s="161">
-        <v>2</v>
-      </c>
-      <c r="D243" s="162" t="s">
-        <v>482</v>
       </c>
       <c r="E243" s="161">
         <v>6</v>
@@ -15674,16 +15674,16 @@
     </row>
     <row r="244" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A244" s="163" t="s">
+        <v>482</v>
+      </c>
+      <c r="B244" s="163" t="s">
+        <v>470</v>
+      </c>
+      <c r="C244" s="163">
+        <v>2</v>
+      </c>
+      <c r="D244" s="164" t="s">
         <v>483</v>
-      </c>
-      <c r="B244" s="163" t="s">
-        <v>471</v>
-      </c>
-      <c r="C244" s="163">
-        <v>2</v>
-      </c>
-      <c r="D244" s="164" t="s">
-        <v>484</v>
       </c>
       <c r="E244" s="163">
         <v>6</v>
@@ -15724,16 +15724,16 @@
     </row>
     <row r="245" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A245" s="165" t="s">
+        <v>484</v>
+      </c>
+      <c r="B245" s="165" t="s">
+        <v>470</v>
+      </c>
+      <c r="C245" s="165">
+        <v>2</v>
+      </c>
+      <c r="D245" s="166" t="s">
         <v>485</v>
-      </c>
-      <c r="B245" s="165" t="s">
-        <v>471</v>
-      </c>
-      <c r="C245" s="165">
-        <v>2</v>
-      </c>
-      <c r="D245" s="166" t="s">
-        <v>486</v>
       </c>
       <c r="E245" s="165">
         <v>5</v>
@@ -15774,16 +15774,16 @@
     </row>
     <row r="246" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A246" s="167" t="s">
+        <v>486</v>
+      </c>
+      <c r="B246" s="167" t="s">
+        <v>470</v>
+      </c>
+      <c r="C246" s="167">
+        <v>2</v>
+      </c>
+      <c r="D246" s="168" t="s">
         <v>487</v>
-      </c>
-      <c r="B246" s="167" t="s">
-        <v>471</v>
-      </c>
-      <c r="C246" s="167">
-        <v>2</v>
-      </c>
-      <c r="D246" s="168" t="s">
-        <v>488</v>
       </c>
       <c r="E246" s="167">
         <v>4</v>
@@ -15824,16 +15824,16 @@
     </row>
     <row r="247" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A247" s="83" t="s">
+        <v>488</v>
+      </c>
+      <c r="B247" s="83" t="s">
+        <v>470</v>
+      </c>
+      <c r="C247" s="83">
+        <v>2</v>
+      </c>
+      <c r="D247" s="84" t="s">
         <v>489</v>
-      </c>
-      <c r="B247" s="83" t="s">
-        <v>471</v>
-      </c>
-      <c r="C247" s="83">
-        <v>2</v>
-      </c>
-      <c r="D247" s="84" t="s">
-        <v>490</v>
       </c>
       <c r="E247" s="83">
         <v>3</v>
@@ -15874,16 +15874,16 @@
     </row>
     <row r="248" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A248" s="37" t="s">
+        <v>490</v>
+      </c>
+      <c r="B248" s="37" t="s">
+        <v>470</v>
+      </c>
+      <c r="C248" s="37">
+        <v>2</v>
+      </c>
+      <c r="D248" s="38" t="s">
         <v>491</v>
-      </c>
-      <c r="B248" s="37" t="s">
-        <v>471</v>
-      </c>
-      <c r="C248" s="37">
-        <v>2</v>
-      </c>
-      <c r="D248" s="38" t="s">
-        <v>492</v>
       </c>
       <c r="E248" s="37">
         <v>2</v>
@@ -15924,16 +15924,16 @@
     </row>
     <row r="249" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A249" s="169" t="s">
+        <v>492</v>
+      </c>
+      <c r="B249" s="169" t="s">
+        <v>470</v>
+      </c>
+      <c r="C249" s="169">
+        <v>2</v>
+      </c>
+      <c r="D249" s="170" t="s">
         <v>493</v>
-      </c>
-      <c r="B249" s="169" t="s">
-        <v>471</v>
-      </c>
-      <c r="C249" s="169">
-        <v>2</v>
-      </c>
-      <c r="D249" s="170" t="s">
-        <v>494</v>
       </c>
       <c r="E249" s="169">
         <v>2</v>
@@ -15974,16 +15974,16 @@
     </row>
     <row r="250" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A250" s="47" t="s">
+        <v>494</v>
+      </c>
+      <c r="B250" s="47" t="s">
+        <v>470</v>
+      </c>
+      <c r="C250" s="47">
+        <v>2</v>
+      </c>
+      <c r="D250" s="48" t="s">
         <v>495</v>
-      </c>
-      <c r="B250" s="47" t="s">
-        <v>471</v>
-      </c>
-      <c r="C250" s="47">
-        <v>2</v>
-      </c>
-      <c r="D250" s="48" t="s">
-        <v>496</v>
       </c>
       <c r="E250" s="47">
         <v>1</v>
@@ -16024,16 +16024,16 @@
     </row>
     <row r="251" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A251" s="37" t="s">
+        <v>496</v>
+      </c>
+      <c r="B251" s="37" t="s">
+        <v>470</v>
+      </c>
+      <c r="C251" s="37">
+        <v>2</v>
+      </c>
+      <c r="D251" s="38" t="s">
         <v>497</v>
-      </c>
-      <c r="B251" s="37" t="s">
-        <v>471</v>
-      </c>
-      <c r="C251" s="37">
-        <v>2</v>
-      </c>
-      <c r="D251" s="38" t="s">
-        <v>498</v>
       </c>
       <c r="E251" s="37">
         <v>1</v>
@@ -16074,16 +16074,16 @@
     </row>
     <row r="252" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A252" s="19" t="s">
+        <v>498</v>
+      </c>
+      <c r="B252" s="19" t="s">
+        <v>470</v>
+      </c>
+      <c r="C252" s="19">
+        <v>2</v>
+      </c>
+      <c r="D252" s="20" t="s">
         <v>499</v>
-      </c>
-      <c r="B252" s="19" t="s">
-        <v>471</v>
-      </c>
-      <c r="C252" s="19">
-        <v>2</v>
-      </c>
-      <c r="D252" s="20" t="s">
-        <v>500</v>
       </c>
       <c r="E252" s="19">
         <v>1</v>
@@ -16124,16 +16124,16 @@
     </row>
     <row r="253" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A253" s="111" t="s">
+        <v>500</v>
+      </c>
+      <c r="B253" s="111" t="s">
+        <v>470</v>
+      </c>
+      <c r="C253" s="111">
+        <v>3</v>
+      </c>
+      <c r="D253" s="112" t="s">
         <v>501</v>
-      </c>
-      <c r="B253" s="111" t="s">
-        <v>471</v>
-      </c>
-      <c r="C253" s="111">
-        <v>3</v>
-      </c>
-      <c r="D253" s="112" t="s">
-        <v>502</v>
       </c>
       <c r="E253" s="111">
         <v>3</v>
@@ -16174,16 +16174,16 @@
     </row>
     <row r="254" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A254" s="105" t="s">
+        <v>502</v>
+      </c>
+      <c r="B254" s="105" t="s">
+        <v>470</v>
+      </c>
+      <c r="C254" s="105">
+        <v>3</v>
+      </c>
+      <c r="D254" s="106" t="s">
         <v>503</v>
-      </c>
-      <c r="B254" s="105" t="s">
-        <v>471</v>
-      </c>
-      <c r="C254" s="105">
-        <v>3</v>
-      </c>
-      <c r="D254" s="106" t="s">
-        <v>504</v>
       </c>
       <c r="E254" s="105">
         <v>2</v>
@@ -16224,16 +16224,16 @@
     </row>
     <row r="255" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A255" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B255" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C255" s="7">
         <v>4</v>
       </c>
       <c r="D255" s="8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E255" s="7">
         <v>7</v>
@@ -16274,16 +16274,16 @@
     </row>
     <row r="256" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A256" s="19" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B256" s="19" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C256" s="19">
         <v>4</v>
       </c>
       <c r="D256" s="20" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E256" s="19">
         <v>4</v>
@@ -16324,16 +16324,16 @@
     </row>
     <row r="257" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A257" s="171" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B257" s="171" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C257" s="171">
         <v>4</v>
       </c>
       <c r="D257" s="172" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E257" s="171">
         <v>3</v>
@@ -16374,16 +16374,16 @@
     </row>
     <row r="258" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A258" s="111" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B258" s="111" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C258" s="111">
         <v>4</v>
       </c>
       <c r="D258" s="112" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E258" s="111">
         <v>1</v>
@@ -16424,16 +16424,16 @@
     </row>
     <row r="259" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A259" s="41" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B259" s="41" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C259" s="41">
         <v>4</v>
       </c>
       <c r="D259" s="42" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E259" s="41">
         <v>1</v>
@@ -16474,16 +16474,16 @@
     </row>
     <row r="260" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A260" s="111" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B260" s="111" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C260" s="111">
         <v>4</v>
       </c>
       <c r="D260" s="112" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E260" s="111">
         <v>1</v>
@@ -16524,14 +16524,14 @@
     </row>
     <row r="261" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A261" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B261" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C261" s="15"/>
       <c r="D261" s="16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E261" s="15">
         <v>8</v>
@@ -16572,14 +16572,14 @@
     </row>
     <row r="262" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A262" s="173" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B262" s="173" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C262" s="173"/>
       <c r="D262" s="174" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E262" s="173">
         <v>8</v>
@@ -16620,14 +16620,14 @@
     </row>
     <row r="263" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A263" s="123" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B263" s="123" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C263" s="123"/>
       <c r="D263" s="124" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E263" s="123">
         <v>6</v>
@@ -16668,14 +16668,14 @@
     </row>
     <row r="264" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A264" s="155" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B264" s="155" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C264" s="155"/>
       <c r="D264" s="156" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E264" s="155">
         <v>3</v>
@@ -16716,14 +16716,14 @@
     </row>
     <row r="265" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A265" s="175" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B265" s="175" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C265" s="175"/>
       <c r="D265" s="176" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E265" s="175">
         <v>3</v>
@@ -16764,14 +16764,14 @@
     </row>
     <row r="266" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A266" s="17" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B266" s="17" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C266" s="17"/>
       <c r="D266" s="18" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E266" s="17">
         <v>3</v>
@@ -16812,14 +16812,14 @@
     </row>
     <row r="267" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A267" s="45" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B267" s="45" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C267" s="45"/>
       <c r="D267" s="46" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E267" s="45">
         <v>2</v>
@@ -16860,14 +16860,14 @@
     </row>
     <row r="268" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A268" s="177" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B268" s="177" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C268" s="177"/>
       <c r="D268" s="178" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E268" s="177">
         <v>2</v>
@@ -16908,14 +16908,14 @@
     </row>
     <row r="269" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A269" s="103" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B269" s="103" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C269" s="103"/>
       <c r="D269" s="104" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E269" s="103">
         <v>2</v>
@@ -16956,14 +16956,14 @@
     </row>
     <row r="270" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A270" s="179" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B270" s="179" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C270" s="179"/>
       <c r="D270" s="180" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E270" s="179">
         <v>2</v>
@@ -17004,14 +17004,14 @@
     </row>
     <row r="271" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A271" s="145" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B271" s="145" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C271" s="145"/>
       <c r="D271" s="146" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E271" s="145">
         <v>2</v>
@@ -17052,14 +17052,14 @@
     </row>
     <row r="272" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A272" s="75" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B272" s="75" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C272" s="75"/>
       <c r="D272" s="76" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E272" s="75">
         <v>1</v>
@@ -17100,14 +17100,14 @@
     </row>
     <row r="273" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A273" s="19" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B273" s="19" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C273" s="19"/>
       <c r="D273" s="20" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E273" s="19">
         <v>1</v>
@@ -17148,14 +17148,14 @@
     </row>
     <row r="274" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A274" s="109" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B274" s="109" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C274" s="109"/>
       <c r="D274" s="110" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E274" s="109">
         <v>1</v>
@@ -17196,14 +17196,14 @@
     </row>
     <row r="275" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A275" s="97" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B275" s="97" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C275" s="97"/>
       <c r="D275" s="98" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E275" s="97">
         <v>1</v>
@@ -17244,14 +17244,14 @@
     </row>
     <row r="276" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A276" s="19" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B276" s="19" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C276" s="19"/>
       <c r="D276" s="20" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E276" s="19">
         <v>1</v>
@@ -17292,14 +17292,14 @@
     </row>
     <row r="277" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A277" s="81" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B277" s="81" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C277" s="81"/>
       <c r="D277" s="82" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E277" s="81">
         <v>1</v>
@@ -17340,14 +17340,14 @@
     </row>
     <row r="278" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A278" s="39" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B278" s="39" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C278" s="39"/>
       <c r="D278" s="40" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E278" s="39">
         <v>1</v>
@@ -17388,14 +17388,14 @@
     </row>
     <row r="279" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A279" s="75" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B279" s="75" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C279" s="75"/>
       <c r="D279" s="76" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E279" s="75">
         <v>1</v>
@@ -17436,14 +17436,14 @@
     </row>
     <row r="280" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A280" s="35" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B280" s="35" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C280" s="35"/>
       <c r="D280" s="36" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E280" s="35">
         <v>1</v>
@@ -17484,14 +17484,14 @@
     </row>
     <row r="281" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A281" s="181" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B281" s="181" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C281" s="181"/>
       <c r="D281" s="182" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E281" s="181">
         <v>1</v>
@@ -17532,14 +17532,14 @@
     </row>
     <row r="282" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A282" s="19" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B282" s="19" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C282" s="19"/>
       <c r="D282" s="20" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E282" s="19">
         <v>1</v>
@@ -17580,16 +17580,16 @@
     </row>
     <row r="283" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A283" s="183" t="s">
+        <v>560</v>
+      </c>
+      <c r="B283" s="183" t="s">
+        <v>309</v>
+      </c>
+      <c r="C283" s="183">
+        <v>2</v>
+      </c>
+      <c r="D283" s="184" t="s">
         <v>561</v>
-      </c>
-      <c r="B283" s="183" t="s">
-        <v>310</v>
-      </c>
-      <c r="C283" s="183">
-        <v>2</v>
-      </c>
-      <c r="D283" s="184" t="s">
-        <v>562</v>
       </c>
       <c r="E283" s="183">
         <v>4</v>
@@ -17630,16 +17630,16 @@
     </row>
     <row r="284" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A284" s="25" t="s">
+        <v>562</v>
+      </c>
+      <c r="B284" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="C284" s="25">
+        <v>2</v>
+      </c>
+      <c r="D284" s="26" t="s">
         <v>563</v>
-      </c>
-      <c r="B284" s="25" t="s">
-        <v>310</v>
-      </c>
-      <c r="C284" s="25">
-        <v>2</v>
-      </c>
-      <c r="D284" s="26" t="s">
-        <v>564</v>
       </c>
       <c r="E284" s="25">
         <v>4</v>
@@ -17680,14 +17680,14 @@
     </row>
     <row r="285" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A285" s="139" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B285" s="139" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C285" s="139"/>
       <c r="D285" s="140" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E285" s="139">
         <v>3</v>
@@ -17728,14 +17728,14 @@
     </row>
     <row r="286" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C286" s="1"/>
       <c r="D286" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E286" s="1">
         <v>0</v>
@@ -17774,14 +17774,14 @@
     </row>
     <row r="287" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A287" s="81" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B287" s="81" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C287" s="81"/>
       <c r="D287" s="82" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E287" s="81">
         <v>1</v>
